--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,126 +43,147 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>less</t>
+    <t>di</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -184,16 +205,19 @@
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -560,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,38 +653,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L3">
         <v>46</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>46</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3">
-        <v>0.8</v>
-      </c>
-      <c r="L3">
-        <v>52</v>
-      </c>
-      <c r="M3">
-        <v>52</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -671,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.78125</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>0.7857142857142857</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -729,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.6559139784946236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7741935483870968</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.5094339622641509</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.765625</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <v>0.46875</v>
@@ -879,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.4202898550724637</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6418918918918919</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C9">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.3450819672131147</v>
+        <v>0.339344262295082</v>
       </c>
       <c r="L9">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M9">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.631578947368421</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K10">
         <v>0.2955523672883787</v>
@@ -1050,16 +1074,16 @@
         <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.2302904564315353</v>
+        <v>0.2510373443983402</v>
       </c>
       <c r="L11">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5966386554621849</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.2083333333333333</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>95</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5370370370370371</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.1807228915662651</v>
+        <v>0.2</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,38 +1203,38 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5272727272727272</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C14">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14">
+        <v>0.1746987951807229</v>
+      </c>
+      <c r="L14">
         <v>29</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>29</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>26</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14">
-        <v>0.1651376146788991</v>
-      </c>
-      <c r="L14">
-        <v>54</v>
-      </c>
-      <c r="M14">
-        <v>54</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1221,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>273</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5238095238095238</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K15">
         <v>0.1322751322751323</v>
@@ -1279,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4782608695652174</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C16">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>0.08501314636283962</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1044</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4337349397590362</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.03374432186891629</v>
+        <v>0.07274320771253287</v>
       </c>
       <c r="L17">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="M17">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1489</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4315789473684211</v>
+        <v>0.4405797101449275</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,7 +1421,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>54</v>
+        <v>193</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18">
+        <v>0.03374432186891629</v>
+      </c>
+      <c r="L18">
+        <v>52</v>
+      </c>
+      <c r="M18">
+        <v>52</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1489</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1405,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4015748031496063</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1423,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1431,13 +1479,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3968253968253968</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1449,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1457,25 +1505,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3707865168539326</v>
+        <v>0.4</v>
       </c>
       <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>33</v>
-      </c>
-      <c r="D21">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1483,13 +1531,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3666666666666666</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1501,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1509,13 +1557,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3168316831683168</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1527,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>138</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1535,13 +1583,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3127962085308057</v>
+        <v>0.359375</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1553,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1561,13 +1609,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3125</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1579,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>88</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1587,13 +1635,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2474226804123711</v>
+        <v>0.2890625</v>
       </c>
       <c r="C26">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1605,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>146</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1613,13 +1661,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2136752136752137</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1631,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1639,13 +1687,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1899109792284867</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C28">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1657,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>546</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1665,13 +1713,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1702898550724638</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1683,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>229</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1691,13 +1739,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1613924050632911</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1709,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>265</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1717,13 +1765,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1495327102803738</v>
+        <v>0.1824925816023739</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1735,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>182</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1743,13 +1791,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1455696202531646</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1761,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>270</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1769,13 +1817,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.14</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1787,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>172</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1795,13 +1843,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1387665198237885</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="C34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1813,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1821,25 +1869,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1203007518796992</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>234</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1847,13 +1895,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1091954022988506</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D36">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1865,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>310</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1873,13 +1921,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.07397260273972603</v>
+        <v>0.1424050632911392</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1891,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>338</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1899,25 +1947,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05930807248764415</v>
+        <v>0.1268011527377522</v>
       </c>
       <c r="C38">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F38">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>571</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1925,13 +1973,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0556792873051225</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1943,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>424</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1951,25 +1999,207 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03156565656565657</v>
+        <v>0.125</v>
       </c>
       <c r="C40">
         <v>25</v>
       </c>
       <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.1214953271028037</v>
+      </c>
+      <c r="C41">
+        <v>26</v>
+      </c>
+      <c r="D41">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.09274193548387097</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.08614232209737828</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.07397260273972603</v>
+      </c>
+      <c r="C44">
         <v>27</v>
       </c>
-      <c r="E40">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F40">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>767</v>
+      <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.05803571428571429</v>
+      </c>
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>0.04</v>
+      </c>
+      <c r="F45">
+        <v>0.96</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.05601317957166392</v>
+      </c>
+      <c r="C46">
+        <v>34</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46">
+        <v>0.03</v>
+      </c>
+      <c r="F46">
+        <v>0.97</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.0290771175726928</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>0.12</v>
+      </c>
+      <c r="F47">
+        <v>0.88</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
